--- a/biology/Botanique/Sipoonkorpi/Sipoonkorpi.xlsx
+++ b/biology/Botanique/Sipoonkorpi/Sipoonkorpi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sipoonkorpi est une zone forestière s'étendant sur le territoire de Sipoo,  Helsinki et Vantaa en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sipoonkorpi est une zone forestière s'étendant sur le territoire de Sipoo,  Helsinki et Vantaa en Finlande,.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sipoonkorpi est une zone forestière située au nord de la Porvoonväylä.
-Sur les 5 400 hectares de la forêt, 1 267 hectares sont une zone protégée Natura 2000 (FI0100066) et 2 300 hectares font partie du parc national de Sipoonkorpi[3],[4].
-Les forêts de la zone sont principalement constituées d'épicéas, mais les bosquets et les pins sylvestres sont également très courants à Sipoonkorvi[5],[6].
+Sur les 5 400 hectares de la forêt, 1 267 hectares sont une zone protégée Natura 2000 (FI0100066) et 2 300 hectares font partie du parc national de Sipoonkorpi,.
+Les forêts de la zone sont principalement constituées d'épicéas, mais les bosquets et les pins sylvestres sont également très courants à Sipoonkorvi,.
 Les forêts de Sipoonkorvi sont caractérisées par de nombreux rochers, diverses zones marécageuses et plusieurs étangs. 
 D'autre part, il y a de vastes prairies ouvertes et des champs autour des forêts. 
 Dans la partie nord-est de Sipoonkorpi, dans les forêts Hindsby appartenant à la zone Natura 2000, se trouve la vallée du ruisseau Byabäcken avec ses paysages traditionnels et ses bosquets. 
-Certains des hauts plateaux rocheux de Sipoonkorpi ne sont pas seulement des sites de valeur locale mais aussi nationale[7],[8],[9].
-En termes de paysages, Sipoonkorpi est souvent comparé au parc national de Nuuksio[10],[11].
+Certains des hauts plateaux rocheux de Sipoonkorpi ne sont pas seulement des sites de valeur locale mais aussi nationale.
+En termes de paysages, Sipoonkorpi est souvent comparé au parc national de Nuuksio,.
 </t>
         </is>
       </c>
